--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3330607.791637432</v>
+        <v>3328355.711926226</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>70.3671741371075</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974332</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>173.5578851713665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.430620903621238</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>22.05778319390839</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206841</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505461</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716619</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>121.8000472740347</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>47.84205650381972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532352</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>23.10998325717214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1672.191441142816</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1303.228924202404</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1303.228924202404</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,19 +4325,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118628</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142816</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>560.4166776763452</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>223.7776581231573</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101507</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>742.0651425065849</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>742.0651425065849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.632236038043</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1453.669719097631</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102165</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>933.436723517154</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>764.5005405892471</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>614.3839011769113</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>466.4708075945182</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>319.5808600966078</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415171</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>933.436723517154</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.436723517154</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211463</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,46 +5279,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,13 +5999,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6367,19 +6367,19 @@
         <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,7 +7178,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7315,19 +7315,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711693</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405072</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.63391537253447</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>97.57899151911153</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903367</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>3.700727081101424e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551191</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181808</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181812</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12386.9201818181</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181811</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181811</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="N4" t="n">
-        <v>12386.92018181817</v>
-      </c>
       <c r="O4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>101122.5298239072</v>
+      </c>
+      <c r="F5" t="n">
         <v>101122.5298239071</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483643002</v>
+        <v>-789315.0483642997</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632928</v>
+        <v>539429.697363293</v>
       </c>
       <c r="D6" t="n">
-        <v>539429.6973632924</v>
+        <v>539429.6973632923</v>
       </c>
       <c r="E6" t="n">
-        <v>287510.0279079245</v>
+        <v>287475.2899824886</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152798</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="G6" t="n">
-        <v>612922.4897152806</v>
+        <v>612887.7517898442</v>
       </c>
       <c r="H6" t="n">
-        <v>612922.4897152799</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="I6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="J6" t="n">
-        <v>395391.2873180028</v>
+        <v>395356.5493925668</v>
       </c>
       <c r="K6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="L6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898442</v>
       </c>
       <c r="M6" t="n">
-        <v>527867.4617797681</v>
+        <v>527832.7238543325</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898445</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898447</v>
       </c>
       <c r="P6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898445</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>311.5631959351543</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.41454905009476</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>181.1251564493164</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>156.595187355407</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>359.8725868783534</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.155547381919295e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394538</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
